--- a/Code/Results/Cases/Case_0_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_148/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.369475096377958</v>
+        <v>9.008220617589458</v>
       </c>
       <c r="D2">
-        <v>4.197188172659049</v>
+        <v>6.159290980737357</v>
       </c>
       <c r="E2">
-        <v>7.509540421525856</v>
+        <v>12.06062079537978</v>
       </c>
       <c r="F2">
-        <v>24.50377550257143</v>
+        <v>31.27114265021475</v>
       </c>
       <c r="G2">
-        <v>34.23485011801612</v>
+        <v>41.00564469690659</v>
       </c>
       <c r="H2">
-        <v>11.04959154692341</v>
+        <v>17.20488766937506</v>
       </c>
       <c r="I2">
-        <v>19.91355711216036</v>
+        <v>28.1208960237257</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.32089385411477</v>
+        <v>15.55512219329391</v>
       </c>
       <c r="L2">
-        <v>5.423240037498264</v>
+        <v>9.466769726472325</v>
       </c>
       <c r="M2">
-        <v>15.24811759053346</v>
+        <v>17.58673166196473</v>
       </c>
       <c r="N2">
-        <v>12.26113126063225</v>
+        <v>18.65459400662565</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.15878722586596</v>
+        <v>8.99029258589918</v>
       </c>
       <c r="D3">
-        <v>4.203275946944382</v>
+        <v>6.160487358684868</v>
       </c>
       <c r="E3">
-        <v>7.425463917283761</v>
+        <v>12.07776283180736</v>
       </c>
       <c r="F3">
-        <v>23.74070681991469</v>
+        <v>31.25138441817989</v>
       </c>
       <c r="G3">
-        <v>33.03492782802608</v>
+        <v>40.94685972615206</v>
       </c>
       <c r="H3">
-        <v>10.96502670231164</v>
+        <v>17.24851011020611</v>
       </c>
       <c r="I3">
-        <v>19.50469840936287</v>
+        <v>28.1548618585667</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.01222150103263</v>
+        <v>15.18128324418266</v>
       </c>
       <c r="L3">
-        <v>5.451724198121156</v>
+        <v>9.48993581352199</v>
       </c>
       <c r="M3">
-        <v>14.46266601734463</v>
+        <v>17.44684810814705</v>
       </c>
       <c r="N3">
-        <v>12.47797564850514</v>
+        <v>18.71873789269169</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.028853167991493</v>
+        <v>8.980714304919706</v>
       </c>
       <c r="D4">
-        <v>4.20729593741173</v>
+        <v>6.16139182307613</v>
       </c>
       <c r="E4">
-        <v>7.377797344327952</v>
+        <v>12.09016701775963</v>
       </c>
       <c r="F4">
-        <v>23.28724400500457</v>
+        <v>31.24860317656063</v>
       </c>
       <c r="G4">
-        <v>32.32041413432387</v>
+        <v>40.92498149230146</v>
       </c>
       <c r="H4">
-        <v>10.92288929505701</v>
+        <v>17.27887976525138</v>
       </c>
       <c r="I4">
-        <v>19.27001066147981</v>
+        <v>28.18289115940418</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.16287626062176</v>
+        <v>14.94994757091527</v>
       </c>
       <c r="L4">
-        <v>5.47155154272985</v>
+        <v>9.505222096788685</v>
       </c>
       <c r="M4">
-        <v>13.96531079307526</v>
+        <v>17.36363831509599</v>
       </c>
       <c r="N4">
-        <v>12.6140671578384</v>
+        <v>18.76002650624305</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.975831310595801</v>
+        <v>8.97717330360055</v>
       </c>
       <c r="D5">
-        <v>4.209006771956091</v>
+        <v>6.161803398900703</v>
       </c>
       <c r="E5">
-        <v>7.359357497997519</v>
+        <v>12.09569422387516</v>
       </c>
       <c r="F5">
-        <v>23.10639979025795</v>
+        <v>31.24981955511467</v>
       </c>
       <c r="G5">
-        <v>32.03511664160417</v>
+        <v>40.91963991911581</v>
       </c>
       <c r="H5">
-        <v>10.90809266343989</v>
+        <v>17.29215497775573</v>
       </c>
       <c r="I5">
-        <v>19.17846269609122</v>
+        <v>28.19611259890121</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.80515359172439</v>
+        <v>14.85536547216185</v>
       </c>
       <c r="L5">
-        <v>5.480203619015396</v>
+        <v>9.511718769589049</v>
       </c>
       <c r="M5">
-        <v>13.75906799650206</v>
+        <v>17.33043382301307</v>
       </c>
       <c r="N5">
-        <v>12.67029027491762</v>
+        <v>18.77733217196763</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.967024859816538</v>
+        <v>8.976607275556962</v>
       </c>
       <c r="D6">
-        <v>4.209295294705085</v>
+        <v>6.161874346067743</v>
       </c>
       <c r="E6">
-        <v>7.356354714778569</v>
+        <v>12.0966405406589</v>
       </c>
       <c r="F6">
-        <v>23.07661356984858</v>
+        <v>31.25016337100468</v>
       </c>
       <c r="G6">
-        <v>31.98810603613479</v>
+        <v>40.9189687141992</v>
       </c>
       <c r="H6">
-        <v>10.90577654499626</v>
+        <v>17.29441356687443</v>
       </c>
       <c r="I6">
-        <v>19.1635072806432</v>
+        <v>28.19841652754202</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.74505047749253</v>
+        <v>14.83964563434083</v>
       </c>
       <c r="L6">
-        <v>5.481674413027911</v>
+        <v>9.51281369521972</v>
       </c>
       <c r="M6">
-        <v>13.72461361529948</v>
+        <v>17.32496363837388</v>
       </c>
       <c r="N6">
-        <v>12.67967293872342</v>
+        <v>18.78023481127968</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.028138293241836</v>
+        <v>8.980665079663034</v>
       </c>
       <c r="D7">
-        <v>4.207318713811508</v>
+        <v>6.16139719927151</v>
       </c>
       <c r="E7">
-        <v>7.377544685977737</v>
+        <v>12.09023964700674</v>
       </c>
       <c r="F7">
-        <v>23.28478889573664</v>
+        <v>31.24861007050551</v>
       </c>
       <c r="G7">
-        <v>32.31654236569067</v>
+        <v>40.92489498713071</v>
       </c>
       <c r="H7">
-        <v>10.92268024333699</v>
+        <v>17.27905516111425</v>
       </c>
       <c r="I7">
-        <v>19.26875949621656</v>
+        <v>28.18306219004309</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.15809899884018</v>
+        <v>14.94867307231326</v>
       </c>
       <c r="L7">
-        <v>5.471665930556527</v>
+        <v>9.505308630166319</v>
       </c>
       <c r="M7">
-        <v>13.96254343955923</v>
+        <v>17.36318761723867</v>
       </c>
       <c r="N7">
-        <v>12.61482227567821</v>
+        <v>18.76025795021085</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.296989134414171</v>
+        <v>9.001744037492255</v>
       </c>
       <c r="D8">
-        <v>4.199229709843424</v>
+        <v>6.159668399633317</v>
       </c>
       <c r="E8">
-        <v>7.479723879429477</v>
+        <v>12.06614138181325</v>
       </c>
       <c r="F8">
-        <v>24.23763758708017</v>
+        <v>31.26238904461347</v>
       </c>
       <c r="G8">
-        <v>33.81666664392952</v>
+        <v>40.98242587863619</v>
       </c>
       <c r="H8">
-        <v>11.01835179865742</v>
+        <v>17.21918325546438</v>
       </c>
       <c r="I8">
-        <v>19.76917831688946</v>
+        <v>28.13111583061048</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.87911885836549</v>
+        <v>15.42667827092358</v>
       </c>
       <c r="L8">
-        <v>5.432566460410713</v>
+        <v>9.474537103221154</v>
       </c>
       <c r="M8">
-        <v>14.98054744540348</v>
+        <v>17.53796235788696</v>
       </c>
       <c r="N8">
-        <v>12.33530162579109</v>
+        <v>18.67631651062623</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.816878460124134</v>
+        <v>9.054292391097814</v>
       </c>
       <c r="D9">
-        <v>4.185532377145068</v>
+        <v>6.157614147686255</v>
       </c>
       <c r="E9">
-        <v>7.711894724898319</v>
+        <v>12.03379428642691</v>
       </c>
       <c r="F9">
-        <v>26.21896551283513</v>
+        <v>31.36357879296433</v>
       </c>
       <c r="G9">
-        <v>36.92323037266828</v>
+        <v>41.2078901939177</v>
       </c>
       <c r="H9">
-        <v>11.28729363854159</v>
+        <v>17.13031779199935</v>
       </c>
       <c r="I9">
-        <v>20.88080326620763</v>
+        <v>28.08635283959902</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.89465522965172</v>
+        <v>16.34390441692847</v>
       </c>
       <c r="L9">
-        <v>5.375191816397475</v>
+        <v>9.422609661213059</v>
       </c>
       <c r="M9">
-        <v>16.89791347577127</v>
+        <v>17.90056297165981</v>
       </c>
       <c r="N9">
-        <v>11.80945678316339</v>
+        <v>18.52674884227107</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.191127614868879</v>
+        <v>9.099545313946786</v>
       </c>
       <c r="D10">
-        <v>4.176696111697332</v>
+        <v>6.156903566805378</v>
       </c>
       <c r="E10">
-        <v>7.902362517637005</v>
+        <v>12.01911720662644</v>
       </c>
       <c r="F10">
-        <v>27.73532336190965</v>
+        <v>31.4829811014619</v>
       </c>
       <c r="G10">
-        <v>39.2924763339961</v>
+        <v>41.4417410349966</v>
       </c>
       <c r="H10">
-        <v>11.53929714058275</v>
+        <v>17.08255355629827</v>
       </c>
       <c r="I10">
-        <v>21.777374832004</v>
+        <v>28.08847709253378</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.89716297619351</v>
+        <v>16.99813116306848</v>
       </c>
       <c r="L10">
-        <v>5.345913643732279</v>
+        <v>9.389571456019967</v>
       </c>
       <c r="M10">
-        <v>18.44982991876162</v>
+        <v>18.17715075465819</v>
       </c>
       <c r="N10">
-        <v>11.43512475337841</v>
+        <v>18.4259377705385</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.359170240304384</v>
+        <v>9.12152948566836</v>
       </c>
       <c r="D11">
-        <v>4.172925095856582</v>
+        <v>6.156750458249089</v>
       </c>
       <c r="E11">
-        <v>7.993432866928742</v>
+        <v>12.01441193498113</v>
       </c>
       <c r="F11">
-        <v>28.43702228114972</v>
+        <v>31.54700686633898</v>
       </c>
       <c r="G11">
-        <v>40.3870781519834</v>
+        <v>41.56274825699441</v>
       </c>
       <c r="H11">
-        <v>11.66673705236847</v>
+        <v>17.06465381768086</v>
       </c>
       <c r="I11">
-        <v>22.20266119247233</v>
+        <v>28.09707122181425</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.76332527635363</v>
+        <v>17.29008035576229</v>
       </c>
       <c r="L11">
-        <v>5.335655900238786</v>
+        <v>9.375648125744842</v>
       </c>
       <c r="M11">
-        <v>19.12174117061486</v>
+        <v>18.30476500384343</v>
       </c>
       <c r="N11">
-        <v>11.26707961913576</v>
+        <v>18.3820273285446</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.422451626558903</v>
+        <v>9.130051136097642</v>
       </c>
       <c r="D12">
-        <v>4.171531600011261</v>
+        <v>6.156716673404091</v>
       </c>
       <c r="E12">
-        <v>8.02856360367505</v>
+        <v>12.01291333927541</v>
       </c>
       <c r="F12">
-        <v>28.70437487949622</v>
+        <v>31.57263785528859</v>
       </c>
       <c r="G12">
-        <v>40.80388546280573</v>
+        <v>41.61065160476003</v>
       </c>
       <c r="H12">
-        <v>11.7169140158149</v>
+        <v>17.05842789521701</v>
       </c>
       <c r="I12">
-        <v>22.36622265333112</v>
+        <v>28.10142295894459</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.08500191372324</v>
+        <v>17.39971365864286</v>
       </c>
       <c r="L12">
-        <v>5.33223580308426</v>
+        <v>9.370534487948012</v>
       </c>
       <c r="M12">
-        <v>19.37137860235055</v>
+        <v>18.35331076196786</v>
       </c>
       <c r="N12">
-        <v>11.20373741826914</v>
+        <v>18.36567840413845</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.40883901992752</v>
+        <v>9.128207168912651</v>
       </c>
       <c r="D13">
-        <v>4.171830197757803</v>
+        <v>6.15672287783039</v>
       </c>
       <c r="E13">
-        <v>8.020968773474115</v>
+        <v>12.01322349948549</v>
       </c>
       <c r="F13">
-        <v>28.64672388390094</v>
+        <v>31.56705631533628</v>
       </c>
       <c r="G13">
-        <v>40.71401718554616</v>
+        <v>41.60024263551021</v>
       </c>
       <c r="H13">
-        <v>11.70602096837238</v>
+        <v>17.05974416758331</v>
       </c>
       <c r="I13">
-        <v>22.33088468460478</v>
+        <v>28.10043693315343</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.01600218801425</v>
+        <v>17.37614477029491</v>
       </c>
       <c r="L13">
-        <v>5.332951329842037</v>
+        <v>9.371628740756851</v>
       </c>
       <c r="M13">
-        <v>19.31782660883138</v>
+        <v>18.34284632264211</v>
       </c>
       <c r="N13">
-        <v>11.21736674576991</v>
+        <v>18.36918704845423</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.364383683536627</v>
+        <v>9.122226650203938</v>
       </c>
       <c r="D14">
-        <v>4.172809767138841</v>
+        <v>6.156747195412315</v>
       </c>
       <c r="E14">
-        <v>7.996310130059918</v>
+        <v>12.01428297111449</v>
       </c>
       <c r="F14">
-        <v>28.45898510374072</v>
+        <v>31.54908783597205</v>
       </c>
       <c r="G14">
-        <v>40.42132337434912</v>
+        <v>41.56664774225224</v>
       </c>
       <c r="H14">
-        <v>11.67082625591856</v>
+        <v>17.06413052827888</v>
       </c>
       <c r="I14">
-        <v>22.21606701099113</v>
+        <v>28.09740725045894</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.78991575661087</v>
+        <v>17.2991190073033</v>
       </c>
       <c r="L14">
-        <v>5.335365077306622</v>
+        <v>9.375224241747308</v>
       </c>
       <c r="M14">
-        <v>19.14237462565906</v>
+        <v>18.30875467463208</v>
       </c>
       <c r="N14">
-        <v>11.26186271995224</v>
+        <v>18.3806767081229</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.337106647293156</v>
+        <v>9.118588895289575</v>
       </c>
       <c r="D15">
-        <v>4.173414241113989</v>
+        <v>6.156765233393811</v>
       </c>
       <c r="E15">
-        <v>7.981290169968655</v>
+        <v>12.01496879722163</v>
       </c>
       <c r="F15">
-        <v>28.34420082538945</v>
+        <v>31.53826175575578</v>
       </c>
       <c r="G15">
-        <v>40.24233783992388</v>
+        <v>41.54634010113229</v>
       </c>
       <c r="H15">
-        <v>11.64952057464616</v>
+        <v>17.06688927970852</v>
       </c>
       <c r="I15">
-        <v>22.14606577312384</v>
+        <v>28.09569438444302</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.65061191284752</v>
+        <v>17.2518154513562</v>
       </c>
       <c r="L15">
-        <v>5.336904777267335</v>
+        <v>9.377447267660601</v>
       </c>
       <c r="M15">
-        <v>19.03428302001511</v>
+        <v>18.28790024250212</v>
       </c>
       <c r="N15">
-        <v>11.28915504191609</v>
+        <v>18.38775075433209</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.18009804163248</v>
+        <v>9.098136367993481</v>
       </c>
       <c r="D16">
-        <v>4.176947449494653</v>
+        <v>6.156916973143751</v>
       </c>
       <c r="E16">
-        <v>7.896500570153325</v>
+        <v>12.01946435357595</v>
       </c>
       <c r="F16">
-        <v>27.68969783632012</v>
+        <v>31.4789914036003</v>
       </c>
       <c r="G16">
-        <v>39.22126896829521</v>
+        <v>41.43412540592713</v>
       </c>
       <c r="H16">
-        <v>11.53123287817682</v>
+        <v>17.08380054150473</v>
       </c>
       <c r="I16">
-        <v>21.7499326182935</v>
+        <v>28.08806899715176</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.83966608231727</v>
+        <v>16.97892829741937</v>
       </c>
       <c r="L16">
-        <v>5.346647628771133</v>
+        <v>9.390503614707168</v>
       </c>
       <c r="M16">
-        <v>18.4052416863009</v>
+        <v>18.16884380020094</v>
       </c>
       <c r="N16">
-        <v>11.44614949293775</v>
+        <v>18.42884653230504</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.083185785566275</v>
+        <v>9.085944534923994</v>
       </c>
       <c r="D17">
-        <v>4.179177705256884</v>
+        <v>6.157053442940124</v>
       </c>
       <c r="E17">
-        <v>7.84562378899196</v>
+        <v>12.02272697325299</v>
       </c>
       <c r="F17">
-        <v>27.29116449985617</v>
+        <v>31.44511100957267</v>
       </c>
       <c r="G17">
-        <v>38.59908534132127</v>
+        <v>41.36901675459386</v>
       </c>
       <c r="H17">
-        <v>11.46200141009273</v>
+        <v>17.09515693783029</v>
       </c>
       <c r="I17">
-        <v>21.51138540029579</v>
+        <v>28.08534535131885</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.33078887229844</v>
+        <v>16.80999168693026</v>
       </c>
       <c r="L17">
-        <v>5.35342516842392</v>
+        <v>9.398796365708689</v>
       </c>
       <c r="M17">
-        <v>18.01068815865545</v>
+        <v>18.09623963614782</v>
       </c>
       <c r="N17">
-        <v>11.54301372376238</v>
+        <v>18.45455574904695</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.027238501862339</v>
+        <v>9.079064014492094</v>
       </c>
       <c r="D18">
-        <v>4.180483958973902</v>
+        <v>6.157147966991226</v>
       </c>
       <c r="E18">
-        <v>7.816776854624366</v>
+        <v>12.02478912728929</v>
       </c>
       <c r="F18">
-        <v>27.06306146320389</v>
+        <v>31.42653851912881</v>
       </c>
       <c r="G18">
-        <v>38.24280829241872</v>
+        <v>41.33294639883746</v>
       </c>
       <c r="H18">
-        <v>11.42338177452663</v>
+        <v>17.10204909118735</v>
       </c>
       <c r="I18">
-        <v>21.37581918971046</v>
+        <v>28.08449677739632</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.03387281326408</v>
+        <v>16.71229678394425</v>
       </c>
       <c r="L18">
-        <v>5.35761000484458</v>
+        <v>9.40367024264339</v>
       </c>
       <c r="M18">
-        <v>17.78053900700173</v>
+        <v>18.05465063554491</v>
       </c>
       <c r="N18">
-        <v>11.59894015104168</v>
+        <v>18.46952653546644</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.008261556547963</v>
+        <v>9.076757171523347</v>
       </c>
       <c r="D19">
-        <v>4.180930305558921</v>
+        <v>6.157182732755665</v>
       </c>
       <c r="E19">
-        <v>7.807081006435452</v>
+        <v>12.02551921859007</v>
       </c>
       <c r="F19">
-        <v>26.98602540753433</v>
+        <v>31.42040755923029</v>
       </c>
       <c r="G19">
-        <v>38.12245589500794</v>
+        <v>41.3209709710239</v>
       </c>
       <c r="H19">
-        <v>11.41050964502634</v>
+        <v>17.10444447274854</v>
       </c>
       <c r="I19">
-        <v>21.33020034231794</v>
+        <v>28.08433275209974</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.93261323227996</v>
+        <v>16.67913185872897</v>
       </c>
       <c r="L19">
-        <v>5.359075431727067</v>
+        <v>9.405338340200737</v>
       </c>
       <c r="M19">
-        <v>17.70205985845221</v>
+        <v>18.04059980220459</v>
       </c>
       <c r="N19">
-        <v>11.61791328669757</v>
+        <v>18.47462694584752</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.093523854552483</v>
+        <v>9.087228756154973</v>
       </c>
       <c r="D20">
-        <v>4.178937871258209</v>
+        <v>6.157037258390605</v>
       </c>
       <c r="E20">
-        <v>7.850996595558327</v>
+        <v>12.02236045669735</v>
       </c>
       <c r="F20">
-        <v>27.33347350970497</v>
+        <v>31.44862304405392</v>
       </c>
       <c r="G20">
-        <v>38.66515465993804</v>
+        <v>41.37580517319442</v>
       </c>
       <c r="H20">
-        <v>11.46924641181183</v>
+        <v>17.09391073152079</v>
       </c>
       <c r="I20">
-        <v>21.53660941268088</v>
+        <v>28.08556097194178</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.385395973319</v>
+        <v>16.82803062771164</v>
       </c>
       <c r="L20">
-        <v>5.352673859262583</v>
+        <v>9.397902815124397</v>
       </c>
       <c r="M20">
-        <v>18.05302084014416</v>
+        <v>18.10395104234788</v>
       </c>
       <c r="N20">
-        <v>11.53268055883415</v>
+        <v>18.45179997405843</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.377451111610574</v>
+        <v>9.123977970480151</v>
       </c>
       <c r="D21">
-        <v>4.172521116530413</v>
+        <v>6.156739398279663</v>
       </c>
       <c r="E21">
-        <v>8.003535414345379</v>
+        <v>12.01396409577732</v>
       </c>
       <c r="F21">
-        <v>28.5140846209998</v>
+        <v>31.554328095909</v>
       </c>
       <c r="G21">
-        <v>40.50723268209532</v>
+        <v>41.57645911345595</v>
       </c>
       <c r="H21">
-        <v>11.68111112197891</v>
+        <v>17.06282714451202</v>
       </c>
       <c r="I21">
-        <v>22.24972338121004</v>
+        <v>28.09826736151641</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.85649335324262</v>
+        <v>17.32176916478427</v>
       </c>
       <c r="L21">
-        <v>5.334643299513065</v>
+        <v>9.374163847086818</v>
       </c>
       <c r="M21">
-        <v>19.19403860875387</v>
+        <v>18.31876251405881</v>
       </c>
       <c r="N21">
-        <v>11.24878546373655</v>
+        <v>18.37729435433173</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.56094704130942</v>
+        <v>9.149140165974796</v>
       </c>
       <c r="D22">
-        <v>4.168528066548973</v>
+        <v>6.15668562676063</v>
       </c>
       <c r="E22">
-        <v>8.10698885713945</v>
+        <v>12.01012702596207</v>
       </c>
       <c r="F22">
-        <v>29.29519821323861</v>
+        <v>31.63148381337079</v>
       </c>
       <c r="G22">
-        <v>41.72456563977877</v>
+        <v>41.71971164306868</v>
       </c>
       <c r="H22">
-        <v>11.83079373300362</v>
+        <v>17.04573228456306</v>
       </c>
       <c r="I22">
-        <v>22.73045426813553</v>
+        <v>28.11296733713653</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.78116305083762</v>
+        <v>17.6390406209645</v>
       </c>
       <c r="L22">
-        <v>5.32557800528065</v>
+        <v>9.359574722003758</v>
       </c>
       <c r="M22">
-        <v>19.91182710209141</v>
+        <v>18.46042531091258</v>
       </c>
       <c r="N22">
-        <v>11.0649363674839</v>
+        <v>18.33022632104907</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.463210713721007</v>
+        <v>9.135607411674991</v>
       </c>
       <c r="D23">
-        <v>4.170641240060744</v>
+        <v>6.156701522586971</v>
       </c>
       <c r="E23">
-        <v>8.051426772429178</v>
+        <v>12.01202404886574</v>
       </c>
       <c r="F23">
-        <v>28.87744891762107</v>
+        <v>31.58956978104221</v>
       </c>
       <c r="G23">
-        <v>41.07364510262687</v>
+        <v>41.64215525447856</v>
       </c>
       <c r="H23">
-        <v>11.7498534839734</v>
+        <v>17.05456094674599</v>
       </c>
       <c r="I23">
-        <v>22.4725313830331</v>
+        <v>28.10453657331474</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.2909727313795</v>
+        <v>17.47023566942666</v>
       </c>
       <c r="L23">
-        <v>5.330159121922163</v>
+        <v>9.367276580850719</v>
       </c>
       <c r="M23">
-        <v>19.53125177499464</v>
+        <v>18.38471310048316</v>
       </c>
       <c r="N23">
-        <v>11.16291509594865</v>
+        <v>18.3551990758755</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.088850730709943</v>
+        <v>9.086647758454538</v>
       </c>
       <c r="D24">
-        <v>4.179046225202584</v>
+        <v>6.157044525334268</v>
       </c>
       <c r="E24">
-        <v>7.848566295646561</v>
+        <v>12.02252557809972</v>
       </c>
       <c r="F24">
-        <v>27.31434242584452</v>
+        <v>31.44703243090706</v>
       </c>
       <c r="G24">
-        <v>38.63528027426956</v>
+        <v>41.37273188643817</v>
       </c>
       <c r="H24">
-        <v>11.4659672692917</v>
+        <v>17.09447301008907</v>
       </c>
       <c r="I24">
-        <v>21.52520072275204</v>
+        <v>28.08546125552346</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.36072167920909</v>
+        <v>16.81987699282718</v>
       </c>
       <c r="L24">
-        <v>5.353012629826736</v>
+        <v>9.398306458318311</v>
       </c>
       <c r="M24">
-        <v>18.03389256784877</v>
+        <v>18.10046423899538</v>
       </c>
       <c r="N24">
-        <v>11.5373514395129</v>
+        <v>18.4530452672816</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.677381436634332</v>
+        <v>9.038894861639788</v>
       </c>
       <c r="D25">
-        <v>4.18901600823132</v>
+        <v>6.158028494200426</v>
       </c>
       <c r="E25">
-        <v>7.645627104955521</v>
+        <v>12.04094863478784</v>
       </c>
       <c r="F25">
-        <v>25.67178176328079</v>
+        <v>31.32827182106893</v>
       </c>
       <c r="G25">
-        <v>36.06670507966343</v>
+        <v>41.13486855339437</v>
       </c>
       <c r="H25">
-        <v>11.20532071451334</v>
+        <v>17.15128911576582</v>
       </c>
       <c r="I25">
-        <v>20.56607002347778</v>
+        <v>28.09232510061727</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.11673853827202</v>
+        <v>16.09871824198532</v>
       </c>
       <c r="L25">
-        <v>5.388537197759169</v>
+        <v>9.435758292973386</v>
       </c>
       <c r="M25">
-        <v>16.35836671618673</v>
+        <v>17.80053874851243</v>
       </c>
       <c r="N25">
-        <v>11.94948544610059</v>
+        <v>18.5656103053733</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_148/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.008220617589458</v>
+        <v>6.36947509637777</v>
       </c>
       <c r="D2">
-        <v>6.159290980737357</v>
+        <v>4.197188172659113</v>
       </c>
       <c r="E2">
-        <v>12.06062079537978</v>
+        <v>7.509540421525854</v>
       </c>
       <c r="F2">
-        <v>31.27114265021475</v>
+        <v>24.50377550257142</v>
       </c>
       <c r="G2">
-        <v>41.00564469690659</v>
+        <v>34.23485011801608</v>
       </c>
       <c r="H2">
-        <v>17.20488766937506</v>
+        <v>11.04959154692342</v>
       </c>
       <c r="I2">
-        <v>28.1208960237257</v>
+        <v>19.91355711216034</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.55512219329391</v>
+        <v>19.32089385411475</v>
       </c>
       <c r="L2">
-        <v>9.466769726472325</v>
+        <v>5.423240037498375</v>
       </c>
       <c r="M2">
-        <v>17.58673166196473</v>
+        <v>15.24811759053348</v>
       </c>
       <c r="N2">
-        <v>18.65459400662565</v>
+        <v>12.26113126063222</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.99029258589918</v>
+        <v>6.158787225865954</v>
       </c>
       <c r="D3">
-        <v>6.160487358684868</v>
+        <v>4.203275946944322</v>
       </c>
       <c r="E3">
-        <v>12.07776283180736</v>
+        <v>7.425463917283759</v>
       </c>
       <c r="F3">
-        <v>31.25138441817989</v>
+        <v>23.74070681991476</v>
       </c>
       <c r="G3">
-        <v>40.94685972615206</v>
+        <v>33.03492782802612</v>
       </c>
       <c r="H3">
-        <v>17.24851011020611</v>
+        <v>10.96502670231174</v>
       </c>
       <c r="I3">
-        <v>28.1548618585667</v>
+        <v>19.50469840936292</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.18128324418266</v>
+        <v>18.01222150103263</v>
       </c>
       <c r="L3">
-        <v>9.48993581352199</v>
+        <v>5.451724198121124</v>
       </c>
       <c r="M3">
-        <v>17.44684810814705</v>
+        <v>14.46266601734464</v>
       </c>
       <c r="N3">
-        <v>18.71873789269169</v>
+        <v>12.47797564850524</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.980714304919706</v>
+        <v>6.028853167991402</v>
       </c>
       <c r="D4">
-        <v>6.16139182307613</v>
+        <v>4.207295937411658</v>
       </c>
       <c r="E4">
-        <v>12.09016701775963</v>
+        <v>7.377797344327893</v>
       </c>
       <c r="F4">
-        <v>31.24860317656063</v>
+        <v>23.2872440050048</v>
       </c>
       <c r="G4">
-        <v>40.92498149230146</v>
+        <v>32.32041413432421</v>
       </c>
       <c r="H4">
-        <v>17.27887976525138</v>
+        <v>10.92288929505711</v>
       </c>
       <c r="I4">
-        <v>28.18289115940418</v>
+        <v>19.27001066147998</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.94994757091527</v>
+        <v>17.16287626062164</v>
       </c>
       <c r="L4">
-        <v>9.505222096788685</v>
+        <v>5.471551542729875</v>
       </c>
       <c r="M4">
-        <v>17.36363831509599</v>
+        <v>13.96531079307529</v>
       </c>
       <c r="N4">
-        <v>18.76002650624305</v>
+        <v>12.61406715783843</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.97717330360055</v>
+        <v>5.975831310595801</v>
       </c>
       <c r="D5">
-        <v>6.161803398900703</v>
+        <v>4.209006771956354</v>
       </c>
       <c r="E5">
-        <v>12.09569422387516</v>
+        <v>7.359357497997506</v>
       </c>
       <c r="F5">
-        <v>31.24981955511467</v>
+        <v>23.10639979025806</v>
       </c>
       <c r="G5">
-        <v>40.91963991911581</v>
+        <v>32.03511664160453</v>
       </c>
       <c r="H5">
-        <v>17.29215497775573</v>
+        <v>10.90809266344005</v>
       </c>
       <c r="I5">
-        <v>28.19611259890121</v>
+        <v>19.17846269609142</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.85536547216185</v>
+        <v>16.80515359172431</v>
       </c>
       <c r="L5">
-        <v>9.511718769589049</v>
+        <v>5.480203619015393</v>
       </c>
       <c r="M5">
-        <v>17.33043382301307</v>
+        <v>13.7590679965021</v>
       </c>
       <c r="N5">
-        <v>18.77733217196763</v>
+        <v>12.67029027491768</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.976607275556962</v>
+        <v>5.967024859816538</v>
       </c>
       <c r="D6">
-        <v>6.161874346067743</v>
+        <v>4.209295294705155</v>
       </c>
       <c r="E6">
-        <v>12.0966405406589</v>
+        <v>7.356354714778515</v>
       </c>
       <c r="F6">
-        <v>31.25016337100468</v>
+        <v>23.07661356984847</v>
       </c>
       <c r="G6">
-        <v>40.9189687141992</v>
+        <v>31.9881060361346</v>
       </c>
       <c r="H6">
-        <v>17.29441356687443</v>
+        <v>10.90577654499615</v>
       </c>
       <c r="I6">
-        <v>28.19841652754202</v>
+        <v>19.16350728064311</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.83964563434083</v>
+        <v>16.74505047749253</v>
       </c>
       <c r="L6">
-        <v>9.51281369521972</v>
+        <v>5.481674413027942</v>
       </c>
       <c r="M6">
-        <v>17.32496363837388</v>
+        <v>13.72461361529943</v>
       </c>
       <c r="N6">
-        <v>18.78023481127968</v>
+        <v>12.67967293872339</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.980665079663034</v>
+        <v>6.028138293241831</v>
       </c>
       <c r="D7">
-        <v>6.16139719927151</v>
+        <v>4.20731871381163</v>
       </c>
       <c r="E7">
-        <v>12.09023964700674</v>
+        <v>7.377544685977679</v>
       </c>
       <c r="F7">
-        <v>31.24861007050551</v>
+        <v>23.28478889573661</v>
       </c>
       <c r="G7">
-        <v>40.92489498713071</v>
+        <v>32.31654236569085</v>
       </c>
       <c r="H7">
-        <v>17.27905516111425</v>
+        <v>10.92268024333695</v>
       </c>
       <c r="I7">
-        <v>28.18306219004309</v>
+        <v>19.26875949621655</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.94867307231326</v>
+        <v>17.15809899884025</v>
       </c>
       <c r="L7">
-        <v>9.505308630166319</v>
+        <v>5.471665930556497</v>
       </c>
       <c r="M7">
-        <v>17.36318761723867</v>
+        <v>13.96254343955921</v>
       </c>
       <c r="N7">
-        <v>18.76025795021085</v>
+        <v>12.61482227567824</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.001744037492255</v>
+        <v>6.296989134414164</v>
       </c>
       <c r="D8">
-        <v>6.159668399633317</v>
+        <v>4.199229709843555</v>
       </c>
       <c r="E8">
-        <v>12.06614138181325</v>
+        <v>7.479723879429527</v>
       </c>
       <c r="F8">
-        <v>31.26238904461347</v>
+        <v>24.23763758708012</v>
       </c>
       <c r="G8">
-        <v>40.98242587863619</v>
+        <v>33.81666664392949</v>
       </c>
       <c r="H8">
-        <v>17.21918325546438</v>
+        <v>11.01835179865743</v>
       </c>
       <c r="I8">
-        <v>28.13111583061048</v>
+        <v>19.76917831688947</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.42667827092358</v>
+        <v>18.87911885836549</v>
       </c>
       <c r="L8">
-        <v>9.474537103221154</v>
+        <v>5.432566460410744</v>
       </c>
       <c r="M8">
-        <v>17.53796235788696</v>
+        <v>14.9805474454035</v>
       </c>
       <c r="N8">
-        <v>18.67631651062623</v>
+        <v>12.33530162579109</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.054292391097814</v>
+        <v>6.816878460124205</v>
       </c>
       <c r="D9">
-        <v>6.157614147686255</v>
+        <v>4.185532377145005</v>
       </c>
       <c r="E9">
-        <v>12.03379428642691</v>
+        <v>7.711894724898405</v>
       </c>
       <c r="F9">
-        <v>31.36357879296433</v>
+        <v>26.21896551283507</v>
       </c>
       <c r="G9">
-        <v>41.2078901939177</v>
+        <v>36.92323037266821</v>
       </c>
       <c r="H9">
-        <v>17.13031779199935</v>
+        <v>11.28729363854157</v>
       </c>
       <c r="I9">
-        <v>28.08635283959902</v>
+        <v>20.88080326620756</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.34390441692847</v>
+        <v>21.89465522965173</v>
       </c>
       <c r="L9">
-        <v>9.422609661213059</v>
+        <v>5.375191816397557</v>
       </c>
       <c r="M9">
-        <v>17.90056297165981</v>
+        <v>16.89791347577125</v>
       </c>
       <c r="N9">
-        <v>18.52674884227107</v>
+        <v>11.8094567831634</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.099545313946786</v>
+        <v>7.191127614868936</v>
       </c>
       <c r="D10">
-        <v>6.156903566805378</v>
+        <v>4.17669611169739</v>
       </c>
       <c r="E10">
-        <v>12.01911720662644</v>
+        <v>7.902362517637044</v>
       </c>
       <c r="F10">
-        <v>31.4829811014619</v>
+        <v>27.73532336190968</v>
       </c>
       <c r="G10">
-        <v>41.4417410349966</v>
+        <v>39.29247633399615</v>
       </c>
       <c r="H10">
-        <v>17.08255355629827</v>
+        <v>11.53929714058278</v>
       </c>
       <c r="I10">
-        <v>28.08847709253378</v>
+        <v>21.77737483200405</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.99813116306848</v>
+        <v>23.89716297619351</v>
       </c>
       <c r="L10">
-        <v>9.389571456019967</v>
+        <v>5.345913643732334</v>
       </c>
       <c r="M10">
-        <v>18.17715075465819</v>
+        <v>18.44982991876161</v>
       </c>
       <c r="N10">
-        <v>18.4259377705385</v>
+        <v>11.43512475337844</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.12152948566836</v>
+        <v>7.359170240304453</v>
       </c>
       <c r="D11">
-        <v>6.156750458249089</v>
+        <v>4.172925095856575</v>
       </c>
       <c r="E11">
-        <v>12.01441193498113</v>
+        <v>7.993432866928775</v>
       </c>
       <c r="F11">
-        <v>31.54700686633898</v>
+        <v>28.43702228114974</v>
       </c>
       <c r="G11">
-        <v>41.56274825699441</v>
+        <v>40.38707815198342</v>
       </c>
       <c r="H11">
-        <v>17.06465381768086</v>
+        <v>11.6667370523685</v>
       </c>
       <c r="I11">
-        <v>28.09707122181425</v>
+        <v>22.20266119247236</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.29008035576229</v>
+        <v>24.76332527635361</v>
       </c>
       <c r="L11">
-        <v>9.375648125744842</v>
+        <v>5.335655900238833</v>
       </c>
       <c r="M11">
-        <v>18.30476500384343</v>
+        <v>19.12174117061482</v>
       </c>
       <c r="N11">
-        <v>18.3820273285446</v>
+        <v>11.26707961913579</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.130051136097642</v>
+        <v>7.422451626558912</v>
       </c>
       <c r="D12">
-        <v>6.156716673404091</v>
+        <v>4.171531600011198</v>
       </c>
       <c r="E12">
-        <v>12.01291333927541</v>
+        <v>8.028563603675012</v>
       </c>
       <c r="F12">
-        <v>31.57263785528859</v>
+        <v>28.70437487949626</v>
       </c>
       <c r="G12">
-        <v>41.61065160476003</v>
+        <v>40.80388546280578</v>
       </c>
       <c r="H12">
-        <v>17.05842789521701</v>
+        <v>11.7169140158149</v>
       </c>
       <c r="I12">
-        <v>28.10142295894459</v>
+        <v>22.36622265333115</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.39971365864286</v>
+        <v>25.08500191372323</v>
       </c>
       <c r="L12">
-        <v>9.370534487948012</v>
+        <v>5.33223580308421</v>
       </c>
       <c r="M12">
-        <v>18.35331076196786</v>
+        <v>19.37137860235055</v>
       </c>
       <c r="N12">
-        <v>18.36567840413845</v>
+        <v>11.20373741826914</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.128207168912651</v>
+        <v>7.408839019927549</v>
       </c>
       <c r="D13">
-        <v>6.15672287783039</v>
+        <v>4.171830197757789</v>
       </c>
       <c r="E13">
-        <v>12.01322349948549</v>
+        <v>8.020968773474115</v>
       </c>
       <c r="F13">
-        <v>31.56705631533628</v>
+        <v>28.64672388390091</v>
       </c>
       <c r="G13">
-        <v>41.60024263551021</v>
+        <v>40.71401718554615</v>
       </c>
       <c r="H13">
-        <v>17.05974416758331</v>
+        <v>11.7060209683724</v>
       </c>
       <c r="I13">
-        <v>28.10043693315343</v>
+        <v>22.33088468460476</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.37614477029491</v>
+        <v>25.01600218801433</v>
       </c>
       <c r="L13">
-        <v>9.371628740756851</v>
+        <v>5.332951329841984</v>
       </c>
       <c r="M13">
-        <v>18.34284632264211</v>
+        <v>19.31782660883142</v>
       </c>
       <c r="N13">
-        <v>18.36918704845423</v>
+        <v>11.21736674576988</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.122226650203938</v>
+        <v>7.364383683536589</v>
       </c>
       <c r="D14">
-        <v>6.156747195412315</v>
+        <v>4.172809767138976</v>
       </c>
       <c r="E14">
-        <v>12.01428297111449</v>
+        <v>7.996310130059878</v>
       </c>
       <c r="F14">
-        <v>31.54908783597205</v>
+        <v>28.45898510374065</v>
       </c>
       <c r="G14">
-        <v>41.56664774225224</v>
+        <v>40.42132337434905</v>
       </c>
       <c r="H14">
-        <v>17.06413052827888</v>
+        <v>11.67082625591854</v>
       </c>
       <c r="I14">
-        <v>28.09740725045894</v>
+        <v>22.21606701099106</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.2991190073033</v>
+        <v>24.78991575661083</v>
       </c>
       <c r="L14">
-        <v>9.375224241747308</v>
+        <v>5.335365077306619</v>
       </c>
       <c r="M14">
-        <v>18.30875467463208</v>
+        <v>19.14237462565904</v>
       </c>
       <c r="N14">
-        <v>18.3806767081229</v>
+        <v>11.26186271995218</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.118588895289575</v>
+        <v>7.337106647293067</v>
       </c>
       <c r="D15">
-        <v>6.156765233393811</v>
+        <v>4.17341424111418</v>
       </c>
       <c r="E15">
-        <v>12.01496879722163</v>
+        <v>7.981290169968648</v>
       </c>
       <c r="F15">
-        <v>31.53826175575578</v>
+        <v>28.34420082538943</v>
       </c>
       <c r="G15">
-        <v>41.54634010113229</v>
+        <v>40.24233783992387</v>
       </c>
       <c r="H15">
-        <v>17.06688927970852</v>
+        <v>11.64952057464618</v>
       </c>
       <c r="I15">
-        <v>28.09569438444302</v>
+        <v>22.14606577312382</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.2518154513562</v>
+        <v>24.65061191284745</v>
       </c>
       <c r="L15">
-        <v>9.377447267660601</v>
+        <v>5.336904777267467</v>
       </c>
       <c r="M15">
-        <v>18.28790024250212</v>
+        <v>19.03428302001506</v>
       </c>
       <c r="N15">
-        <v>18.38775075433209</v>
+        <v>11.28915504191606</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.098136367993481</v>
+        <v>7.180098041632569</v>
       </c>
       <c r="D16">
-        <v>6.156916973143751</v>
+        <v>4.176947449494707</v>
       </c>
       <c r="E16">
-        <v>12.01946435357595</v>
+        <v>7.896500570153366</v>
       </c>
       <c r="F16">
-        <v>31.4789914036003</v>
+        <v>27.6896978363201</v>
       </c>
       <c r="G16">
-        <v>41.43412540592713</v>
+        <v>39.22126896829521</v>
       </c>
       <c r="H16">
-        <v>17.08380054150473</v>
+        <v>11.53123287817672</v>
       </c>
       <c r="I16">
-        <v>28.08806899715176</v>
+        <v>21.74993261829348</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.97892829741937</v>
+        <v>23.83966608231735</v>
       </c>
       <c r="L16">
-        <v>9.390503614707168</v>
+        <v>5.346647628771104</v>
       </c>
       <c r="M16">
-        <v>18.16884380020094</v>
+        <v>18.40524168630093</v>
       </c>
       <c r="N16">
-        <v>18.42884653230504</v>
+        <v>11.44614949293772</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.085944534923994</v>
+        <v>7.083185785566242</v>
       </c>
       <c r="D17">
-        <v>6.157053442940124</v>
+        <v>4.179177705257068</v>
       </c>
       <c r="E17">
-        <v>12.02272697325299</v>
+        <v>7.845623788991954</v>
       </c>
       <c r="F17">
-        <v>31.44511100957267</v>
+        <v>27.29116449985619</v>
       </c>
       <c r="G17">
-        <v>41.36901675459386</v>
+        <v>38.59908534132136</v>
       </c>
       <c r="H17">
-        <v>17.09515693783029</v>
+        <v>11.46200141009274</v>
       </c>
       <c r="I17">
-        <v>28.08534535131885</v>
+        <v>21.51138540029583</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.80999168693026</v>
+        <v>23.33078887229845</v>
       </c>
       <c r="L17">
-        <v>9.398796365708689</v>
+        <v>5.353425168423914</v>
       </c>
       <c r="M17">
-        <v>18.09623963614782</v>
+        <v>18.01068815865545</v>
       </c>
       <c r="N17">
-        <v>18.45455574904695</v>
+        <v>11.54301372376245</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.079064014492094</v>
+        <v>7.027238501862398</v>
       </c>
       <c r="D18">
-        <v>6.157147966991226</v>
+        <v>4.180483958973964</v>
       </c>
       <c r="E18">
-        <v>12.02478912728929</v>
+        <v>7.81677685462445</v>
       </c>
       <c r="F18">
-        <v>31.42653851912881</v>
+        <v>27.06306146320383</v>
       </c>
       <c r="G18">
-        <v>41.33294639883746</v>
+        <v>38.24280829241866</v>
       </c>
       <c r="H18">
-        <v>17.10204909118735</v>
+        <v>11.42338177452659</v>
       </c>
       <c r="I18">
-        <v>28.08449677739632</v>
+        <v>21.37581918971041</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.71229678394425</v>
+        <v>23.03387281326413</v>
       </c>
       <c r="L18">
-        <v>9.40367024264339</v>
+        <v>5.357610004844606</v>
       </c>
       <c r="M18">
-        <v>18.05465063554491</v>
+        <v>17.78053900700173</v>
       </c>
       <c r="N18">
-        <v>18.46952653546644</v>
+        <v>11.59894015104158</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.076757171523347</v>
+        <v>7.008261556548083</v>
       </c>
       <c r="D19">
-        <v>6.157182732755665</v>
+        <v>4.180930305558928</v>
       </c>
       <c r="E19">
-        <v>12.02551921859007</v>
+        <v>7.807081006435487</v>
       </c>
       <c r="F19">
-        <v>31.42040755923029</v>
+        <v>26.98602540753433</v>
       </c>
       <c r="G19">
-        <v>41.3209709710239</v>
+        <v>38.12245589500797</v>
       </c>
       <c r="H19">
-        <v>17.10444447274854</v>
+        <v>11.41050964502633</v>
       </c>
       <c r="I19">
-        <v>28.08433275209974</v>
+        <v>21.33020034231797</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.67913185872897</v>
+        <v>22.93261323227988</v>
       </c>
       <c r="L19">
-        <v>9.405338340200737</v>
+        <v>5.359075431727089</v>
       </c>
       <c r="M19">
-        <v>18.04059980220459</v>
+        <v>17.70205985845214</v>
       </c>
       <c r="N19">
-        <v>18.47462694584752</v>
+        <v>11.61791328669757</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.087228756154973</v>
+        <v>7.093523854552617</v>
       </c>
       <c r="D20">
-        <v>6.157037258390605</v>
+        <v>4.178937871258212</v>
       </c>
       <c r="E20">
-        <v>12.02236045669735</v>
+        <v>7.850996595558277</v>
       </c>
       <c r="F20">
-        <v>31.44862304405392</v>
+        <v>27.33347350970496</v>
       </c>
       <c r="G20">
-        <v>41.37580517319442</v>
+        <v>38.665154659938</v>
       </c>
       <c r="H20">
-        <v>17.09391073152079</v>
+        <v>11.46924641181185</v>
       </c>
       <c r="I20">
-        <v>28.08556097194178</v>
+        <v>21.5366094126809</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.82803062771164</v>
+        <v>23.38539597331899</v>
       </c>
       <c r="L20">
-        <v>9.397902815124397</v>
+        <v>5.352673859262501</v>
       </c>
       <c r="M20">
-        <v>18.10395104234788</v>
+        <v>18.05302084014416</v>
       </c>
       <c r="N20">
-        <v>18.45179997405843</v>
+        <v>11.53268055883415</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.123977970480151</v>
+        <v>7.377451111610582</v>
       </c>
       <c r="D21">
-        <v>6.156739398279663</v>
+        <v>4.17252111653047</v>
       </c>
       <c r="E21">
-        <v>12.01396409577732</v>
+        <v>8.003535414345414</v>
       </c>
       <c r="F21">
-        <v>31.554328095909</v>
+        <v>28.51408462099979</v>
       </c>
       <c r="G21">
-        <v>41.57645911345595</v>
+        <v>40.50723268209534</v>
       </c>
       <c r="H21">
-        <v>17.06282714451202</v>
+        <v>11.68111112197891</v>
       </c>
       <c r="I21">
-        <v>28.09826736151641</v>
+        <v>22.24972338121006</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.32176916478427</v>
+        <v>24.85649335324261</v>
       </c>
       <c r="L21">
-        <v>9.374163847086818</v>
+        <v>5.334643299513119</v>
       </c>
       <c r="M21">
-        <v>18.31876251405881</v>
+        <v>19.19403860875384</v>
       </c>
       <c r="N21">
-        <v>18.37729435433173</v>
+        <v>11.24878546373659</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.149140165974796</v>
+        <v>7.560947041309483</v>
       </c>
       <c r="D22">
-        <v>6.15668562676063</v>
+        <v>4.168528066548977</v>
       </c>
       <c r="E22">
-        <v>12.01012702596207</v>
+        <v>8.106988857139536</v>
       </c>
       <c r="F22">
-        <v>31.63148381337079</v>
+        <v>29.29519821323858</v>
       </c>
       <c r="G22">
-        <v>41.71971164306868</v>
+        <v>41.72456563977871</v>
       </c>
       <c r="H22">
-        <v>17.04573228456306</v>
+        <v>11.83079373300356</v>
       </c>
       <c r="I22">
-        <v>28.11296733713653</v>
+        <v>22.7304542681355</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.6390406209645</v>
+        <v>25.78116305083769</v>
       </c>
       <c r="L22">
-        <v>9.359574722003758</v>
+        <v>5.325578005280676</v>
       </c>
       <c r="M22">
-        <v>18.46042531091258</v>
+        <v>19.91182710209141</v>
       </c>
       <c r="N22">
-        <v>18.33022632104907</v>
+        <v>11.0649363674838</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.135607411674991</v>
+        <v>7.463210713720941</v>
       </c>
       <c r="D23">
-        <v>6.156701522586971</v>
+        <v>4.170641240060802</v>
       </c>
       <c r="E23">
-        <v>12.01202404886574</v>
+        <v>8.051426772429178</v>
       </c>
       <c r="F23">
-        <v>31.58956978104221</v>
+        <v>28.87744891762106</v>
       </c>
       <c r="G23">
-        <v>41.64215525447856</v>
+        <v>41.07364510262687</v>
       </c>
       <c r="H23">
-        <v>17.05456094674599</v>
+        <v>11.74985348397344</v>
       </c>
       <c r="I23">
-        <v>28.10453657331474</v>
+        <v>22.4725313830331</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.47023566942666</v>
+        <v>25.29097273137948</v>
       </c>
       <c r="L23">
-        <v>9.367276580850719</v>
+        <v>5.330159121922163</v>
       </c>
       <c r="M23">
-        <v>18.38471310048316</v>
+        <v>19.53125177499462</v>
       </c>
       <c r="N23">
-        <v>18.3551990758755</v>
+        <v>11.16291509594865</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.086647758454538</v>
+        <v>7.08885073070998</v>
       </c>
       <c r="D24">
-        <v>6.157044525334268</v>
+        <v>4.179046225202468</v>
       </c>
       <c r="E24">
-        <v>12.02252557809972</v>
+        <v>7.848566295646552</v>
       </c>
       <c r="F24">
-        <v>31.44703243090706</v>
+        <v>27.31434242584453</v>
       </c>
       <c r="G24">
-        <v>41.37273188643817</v>
+        <v>38.63528027426952</v>
       </c>
       <c r="H24">
-        <v>17.09447301008907</v>
+        <v>11.46596726929172</v>
       </c>
       <c r="I24">
-        <v>28.08546125552346</v>
+        <v>21.52520072275209</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.81987699282718</v>
+        <v>23.36072167920899</v>
       </c>
       <c r="L24">
-        <v>9.398306458318311</v>
+        <v>5.353012629826683</v>
       </c>
       <c r="M24">
-        <v>18.10046423899538</v>
+        <v>18.03389256784872</v>
       </c>
       <c r="N24">
-        <v>18.4530452672816</v>
+        <v>11.53735143951294</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.038894861639788</v>
+        <v>6.677381436634324</v>
       </c>
       <c r="D25">
-        <v>6.158028494200426</v>
+        <v>4.189016008231521</v>
       </c>
       <c r="E25">
-        <v>12.04094863478784</v>
+        <v>7.645627104955441</v>
       </c>
       <c r="F25">
-        <v>31.32827182106893</v>
+        <v>25.67178176328076</v>
       </c>
       <c r="G25">
-        <v>41.13486855339437</v>
+        <v>36.06670507966336</v>
       </c>
       <c r="H25">
-        <v>17.15128911576582</v>
+        <v>11.20532071451339</v>
       </c>
       <c r="I25">
-        <v>28.09232510061727</v>
+        <v>20.56607002347777</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.09871824198532</v>
+        <v>21.11673853827204</v>
       </c>
       <c r="L25">
-        <v>9.435758292973386</v>
+        <v>5.388537197759088</v>
       </c>
       <c r="M25">
-        <v>17.80053874851243</v>
+        <v>16.35836671618673</v>
       </c>
       <c r="N25">
-        <v>18.5656103053733</v>
+        <v>11.94948544610056</v>
       </c>
       <c r="O25">
         <v>0</v>
